--- a/data/fitness_development/pupae-data-p2.xlsx
+++ b/data/fitness_development/pupae-data-p2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_13/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FAFDAE-E313-8A42-8160-C5796D2D1169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66318605-EF61-0A4E-A9CF-DB695D95B6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F5BB593D-E9EA-D74E-B6AA-2AE9B17AED67}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F5BB593D-E9EA-D74E-B6AA-2AE9B17AED67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0790071-69A9-C243-B0ED-F5146F5DC312}">
-  <dimension ref="A1:D545"/>
+  <dimension ref="A1:D681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B537" zoomScale="338" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="D546" sqref="D546"/>
+    <sheetView tabSelected="1" topLeftCell="A676" zoomScale="309" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="D624" sqref="D624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8075,6 +8075,1910 @@
         <v>5</v>
       </c>
     </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>1</v>
+      </c>
+      <c r="B546" t="s">
+        <v>3</v>
+      </c>
+      <c r="C546">
+        <v>210</v>
+      </c>
+      <c r="D546">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>1</v>
+      </c>
+      <c r="B547" t="s">
+        <v>4</v>
+      </c>
+      <c r="C547">
+        <v>210</v>
+      </c>
+      <c r="D547">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>2</v>
+      </c>
+      <c r="B548" t="s">
+        <v>3</v>
+      </c>
+      <c r="C548">
+        <v>210</v>
+      </c>
+      <c r="D548">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>2</v>
+      </c>
+      <c r="B549" t="s">
+        <v>4</v>
+      </c>
+      <c r="C549">
+        <v>210</v>
+      </c>
+      <c r="D549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>3</v>
+      </c>
+      <c r="B550" t="s">
+        <v>3</v>
+      </c>
+      <c r="C550">
+        <v>210</v>
+      </c>
+      <c r="D550">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>3</v>
+      </c>
+      <c r="B551" t="s">
+        <v>4</v>
+      </c>
+      <c r="C551">
+        <v>210</v>
+      </c>
+      <c r="D551">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>4</v>
+      </c>
+      <c r="B552" t="s">
+        <v>3</v>
+      </c>
+      <c r="C552">
+        <v>210</v>
+      </c>
+      <c r="D552">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>4</v>
+      </c>
+      <c r="B553" t="s">
+        <v>4</v>
+      </c>
+      <c r="C553">
+        <v>210</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>5</v>
+      </c>
+      <c r="B554" t="s">
+        <v>3</v>
+      </c>
+      <c r="C554">
+        <v>210</v>
+      </c>
+      <c r="D554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>5</v>
+      </c>
+      <c r="B555" t="s">
+        <v>4</v>
+      </c>
+      <c r="C555">
+        <v>210</v>
+      </c>
+      <c r="D555">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>6</v>
+      </c>
+      <c r="B556" t="s">
+        <v>3</v>
+      </c>
+      <c r="C556">
+        <v>210</v>
+      </c>
+      <c r="D556">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>6</v>
+      </c>
+      <c r="B557" t="s">
+        <v>4</v>
+      </c>
+      <c r="C557">
+        <v>210</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>7</v>
+      </c>
+      <c r="B558" t="s">
+        <v>3</v>
+      </c>
+      <c r="C558">
+        <v>210</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>7</v>
+      </c>
+      <c r="B559" t="s">
+        <v>4</v>
+      </c>
+      <c r="C559">
+        <v>210</v>
+      </c>
+      <c r="D559">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>8</v>
+      </c>
+      <c r="B560" t="s">
+        <v>3</v>
+      </c>
+      <c r="C560">
+        <v>210</v>
+      </c>
+      <c r="D560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>8</v>
+      </c>
+      <c r="B561" t="s">
+        <v>4</v>
+      </c>
+      <c r="C561">
+        <v>210</v>
+      </c>
+      <c r="D561">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>9</v>
+      </c>
+      <c r="B562" t="s">
+        <v>3</v>
+      </c>
+      <c r="C562">
+        <v>210</v>
+      </c>
+      <c r="D562">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>9</v>
+      </c>
+      <c r="B563" t="s">
+        <v>4</v>
+      </c>
+      <c r="C563">
+        <v>210</v>
+      </c>
+      <c r="D563">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>10</v>
+      </c>
+      <c r="B564" t="s">
+        <v>3</v>
+      </c>
+      <c r="C564">
+        <v>210</v>
+      </c>
+      <c r="D564">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>10</v>
+      </c>
+      <c r="B565" t="s">
+        <v>4</v>
+      </c>
+      <c r="C565">
+        <v>210</v>
+      </c>
+      <c r="D565">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>11</v>
+      </c>
+      <c r="B566" t="s">
+        <v>3</v>
+      </c>
+      <c r="C566">
+        <v>210</v>
+      </c>
+      <c r="D566">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>11</v>
+      </c>
+      <c r="B567" t="s">
+        <v>4</v>
+      </c>
+      <c r="C567">
+        <v>210</v>
+      </c>
+      <c r="D567">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>12</v>
+      </c>
+      <c r="B568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C568">
+        <v>210</v>
+      </c>
+      <c r="D568">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>12</v>
+      </c>
+      <c r="B569" t="s">
+        <v>4</v>
+      </c>
+      <c r="C569">
+        <v>210</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>13</v>
+      </c>
+      <c r="B570" t="s">
+        <v>3</v>
+      </c>
+      <c r="C570">
+        <v>210</v>
+      </c>
+      <c r="D570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>13</v>
+      </c>
+      <c r="B571" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571">
+        <v>210</v>
+      </c>
+      <c r="D571">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>15</v>
+      </c>
+      <c r="B572" t="s">
+        <v>3</v>
+      </c>
+      <c r="C572">
+        <v>210</v>
+      </c>
+      <c r="D572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>14</v>
+      </c>
+      <c r="B573" t="s">
+        <v>4</v>
+      </c>
+      <c r="C573">
+        <v>210</v>
+      </c>
+      <c r="D573">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>15</v>
+      </c>
+      <c r="B574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C574">
+        <v>210</v>
+      </c>
+      <c r="D574">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>15</v>
+      </c>
+      <c r="B575" t="s">
+        <v>4</v>
+      </c>
+      <c r="C575">
+        <v>210</v>
+      </c>
+      <c r="D575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>16</v>
+      </c>
+      <c r="B576" t="s">
+        <v>3</v>
+      </c>
+      <c r="C576">
+        <v>210</v>
+      </c>
+      <c r="D576">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>16</v>
+      </c>
+      <c r="B577" t="s">
+        <v>4</v>
+      </c>
+      <c r="C577">
+        <v>210</v>
+      </c>
+      <c r="D577">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>17</v>
+      </c>
+      <c r="B578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C578">
+        <v>210</v>
+      </c>
+      <c r="D578">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>17</v>
+      </c>
+      <c r="B579" t="s">
+        <v>4</v>
+      </c>
+      <c r="C579">
+        <v>210</v>
+      </c>
+      <c r="D579">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>18</v>
+      </c>
+      <c r="B580" t="s">
+        <v>3</v>
+      </c>
+      <c r="C580">
+        <v>210</v>
+      </c>
+      <c r="D580">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>18</v>
+      </c>
+      <c r="B581" t="s">
+        <v>4</v>
+      </c>
+      <c r="C581">
+        <v>210</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>19</v>
+      </c>
+      <c r="B582" t="s">
+        <v>3</v>
+      </c>
+      <c r="C582">
+        <v>210</v>
+      </c>
+      <c r="D582">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>19</v>
+      </c>
+      <c r="B583" t="s">
+        <v>4</v>
+      </c>
+      <c r="C583">
+        <v>210</v>
+      </c>
+      <c r="D583">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>20</v>
+      </c>
+      <c r="B584" t="s">
+        <v>3</v>
+      </c>
+      <c r="C584">
+        <v>210</v>
+      </c>
+      <c r="D584">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>20</v>
+      </c>
+      <c r="B585" t="s">
+        <v>4</v>
+      </c>
+      <c r="C585">
+        <v>210</v>
+      </c>
+      <c r="D585">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>21</v>
+      </c>
+      <c r="B586" t="s">
+        <v>3</v>
+      </c>
+      <c r="C586">
+        <v>210</v>
+      </c>
+      <c r="D586">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>21</v>
+      </c>
+      <c r="B587" t="s">
+        <v>4</v>
+      </c>
+      <c r="C587">
+        <v>210</v>
+      </c>
+      <c r="D587">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>22</v>
+      </c>
+      <c r="B588" t="s">
+        <v>3</v>
+      </c>
+      <c r="C588">
+        <v>210</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>22</v>
+      </c>
+      <c r="B589" t="s">
+        <v>4</v>
+      </c>
+      <c r="C589">
+        <v>210</v>
+      </c>
+      <c r="D589">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>23</v>
+      </c>
+      <c r="B590" t="s">
+        <v>3</v>
+      </c>
+      <c r="C590">
+        <v>210</v>
+      </c>
+      <c r="D590">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>23</v>
+      </c>
+      <c r="B591" t="s">
+        <v>4</v>
+      </c>
+      <c r="C591">
+        <v>210</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>24</v>
+      </c>
+      <c r="B592" t="s">
+        <v>3</v>
+      </c>
+      <c r="C592">
+        <v>210</v>
+      </c>
+      <c r="D592">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>24</v>
+      </c>
+      <c r="B593" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593">
+        <v>210</v>
+      </c>
+      <c r="D593">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>25</v>
+      </c>
+      <c r="B594" t="s">
+        <v>3</v>
+      </c>
+      <c r="C594">
+        <v>210</v>
+      </c>
+      <c r="D594">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>25</v>
+      </c>
+      <c r="B595" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595">
+        <v>210</v>
+      </c>
+      <c r="D595">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>26</v>
+      </c>
+      <c r="B596" t="s">
+        <v>3</v>
+      </c>
+      <c r="C596">
+        <v>210</v>
+      </c>
+      <c r="D596">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>26</v>
+      </c>
+      <c r="B597" t="s">
+        <v>4</v>
+      </c>
+      <c r="C597">
+        <v>210</v>
+      </c>
+      <c r="D597">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>27</v>
+      </c>
+      <c r="B598" t="s">
+        <v>3</v>
+      </c>
+      <c r="C598">
+        <v>210</v>
+      </c>
+      <c r="D598">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>27</v>
+      </c>
+      <c r="B599" t="s">
+        <v>4</v>
+      </c>
+      <c r="C599">
+        <v>210</v>
+      </c>
+      <c r="D599">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>28</v>
+      </c>
+      <c r="B600" t="s">
+        <v>3</v>
+      </c>
+      <c r="C600">
+        <v>210</v>
+      </c>
+      <c r="D600">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>28</v>
+      </c>
+      <c r="B601" t="s">
+        <v>4</v>
+      </c>
+      <c r="C601">
+        <v>210</v>
+      </c>
+      <c r="D601">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>29</v>
+      </c>
+      <c r="B602" t="s">
+        <v>3</v>
+      </c>
+      <c r="C602">
+        <v>210</v>
+      </c>
+      <c r="D602">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>29</v>
+      </c>
+      <c r="B603" t="s">
+        <v>4</v>
+      </c>
+      <c r="C603">
+        <v>210</v>
+      </c>
+      <c r="D603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>30</v>
+      </c>
+      <c r="B604" t="s">
+        <v>3</v>
+      </c>
+      <c r="C604">
+        <v>210</v>
+      </c>
+      <c r="D604">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>30</v>
+      </c>
+      <c r="B605" t="s">
+        <v>4</v>
+      </c>
+      <c r="C605">
+        <v>210</v>
+      </c>
+      <c r="D605">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>31</v>
+      </c>
+      <c r="B606" t="s">
+        <v>3</v>
+      </c>
+      <c r="C606">
+        <v>210</v>
+      </c>
+      <c r="D606">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>31</v>
+      </c>
+      <c r="B607" t="s">
+        <v>4</v>
+      </c>
+      <c r="C607">
+        <v>210</v>
+      </c>
+      <c r="D607">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>32</v>
+      </c>
+      <c r="B608" t="s">
+        <v>3</v>
+      </c>
+      <c r="C608">
+        <v>210</v>
+      </c>
+      <c r="D608">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>32</v>
+      </c>
+      <c r="B609" t="s">
+        <v>4</v>
+      </c>
+      <c r="C609">
+        <v>210</v>
+      </c>
+      <c r="D609">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>33</v>
+      </c>
+      <c r="B610" t="s">
+        <v>3</v>
+      </c>
+      <c r="C610">
+        <v>210</v>
+      </c>
+      <c r="D610">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>33</v>
+      </c>
+      <c r="B611" t="s">
+        <v>4</v>
+      </c>
+      <c r="C611">
+        <v>210</v>
+      </c>
+      <c r="D611">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>34</v>
+      </c>
+      <c r="B612" t="s">
+        <v>3</v>
+      </c>
+      <c r="C612">
+        <v>210</v>
+      </c>
+      <c r="D612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>34</v>
+      </c>
+      <c r="B613" t="s">
+        <v>4</v>
+      </c>
+      <c r="C613">
+        <v>210</v>
+      </c>
+      <c r="D613">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>1</v>
+      </c>
+      <c r="B614" t="s">
+        <v>3</v>
+      </c>
+      <c r="C614">
+        <v>220</v>
+      </c>
+      <c r="D614">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>1</v>
+      </c>
+      <c r="B615" t="s">
+        <v>4</v>
+      </c>
+      <c r="C615">
+        <v>220</v>
+      </c>
+      <c r="D615">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>2</v>
+      </c>
+      <c r="B616" t="s">
+        <v>3</v>
+      </c>
+      <c r="C616">
+        <v>220</v>
+      </c>
+      <c r="D616">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>2</v>
+      </c>
+      <c r="B617" t="s">
+        <v>4</v>
+      </c>
+      <c r="C617">
+        <v>220</v>
+      </c>
+      <c r="D617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>3</v>
+      </c>
+      <c r="B618" t="s">
+        <v>3</v>
+      </c>
+      <c r="C618">
+        <v>220</v>
+      </c>
+      <c r="D618">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>3</v>
+      </c>
+      <c r="B619" t="s">
+        <v>4</v>
+      </c>
+      <c r="C619">
+        <v>220</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>4</v>
+      </c>
+      <c r="B620" t="s">
+        <v>3</v>
+      </c>
+      <c r="C620">
+        <v>220</v>
+      </c>
+      <c r="D620">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>4</v>
+      </c>
+      <c r="B621" t="s">
+        <v>4</v>
+      </c>
+      <c r="C621">
+        <v>220</v>
+      </c>
+      <c r="D621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>5</v>
+      </c>
+      <c r="B622" t="s">
+        <v>3</v>
+      </c>
+      <c r="C622">
+        <v>220</v>
+      </c>
+      <c r="D622">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>5</v>
+      </c>
+      <c r="B623" t="s">
+        <v>4</v>
+      </c>
+      <c r="C623">
+        <v>220</v>
+      </c>
+      <c r="D623">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>6</v>
+      </c>
+      <c r="B624" t="s">
+        <v>3</v>
+      </c>
+      <c r="C624">
+        <v>220</v>
+      </c>
+      <c r="D624">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>6</v>
+      </c>
+      <c r="B625" t="s">
+        <v>4</v>
+      </c>
+      <c r="C625">
+        <v>220</v>
+      </c>
+      <c r="D625">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>7</v>
+      </c>
+      <c r="B626" t="s">
+        <v>3</v>
+      </c>
+      <c r="C626">
+        <v>220</v>
+      </c>
+      <c r="D626">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>7</v>
+      </c>
+      <c r="B627" t="s">
+        <v>4</v>
+      </c>
+      <c r="C627">
+        <v>220</v>
+      </c>
+      <c r="D627">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>8</v>
+      </c>
+      <c r="B628" t="s">
+        <v>3</v>
+      </c>
+      <c r="C628">
+        <v>220</v>
+      </c>
+      <c r="D628">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>8</v>
+      </c>
+      <c r="B629" t="s">
+        <v>4</v>
+      </c>
+      <c r="C629">
+        <v>220</v>
+      </c>
+      <c r="D629">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>9</v>
+      </c>
+      <c r="B630" t="s">
+        <v>3</v>
+      </c>
+      <c r="C630">
+        <v>220</v>
+      </c>
+      <c r="D630">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>9</v>
+      </c>
+      <c r="B631" t="s">
+        <v>4</v>
+      </c>
+      <c r="C631">
+        <v>220</v>
+      </c>
+      <c r="D631">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>10</v>
+      </c>
+      <c r="B632" t="s">
+        <v>3</v>
+      </c>
+      <c r="C632">
+        <v>220</v>
+      </c>
+      <c r="D632">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>10</v>
+      </c>
+      <c r="B633" t="s">
+        <v>4</v>
+      </c>
+      <c r="C633">
+        <v>220</v>
+      </c>
+      <c r="D633">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>11</v>
+      </c>
+      <c r="B634" t="s">
+        <v>3</v>
+      </c>
+      <c r="C634">
+        <v>220</v>
+      </c>
+      <c r="D634">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>11</v>
+      </c>
+      <c r="B635" t="s">
+        <v>4</v>
+      </c>
+      <c r="C635">
+        <v>220</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>12</v>
+      </c>
+      <c r="B636" t="s">
+        <v>3</v>
+      </c>
+      <c r="C636">
+        <v>220</v>
+      </c>
+      <c r="D636">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>12</v>
+      </c>
+      <c r="B637" t="s">
+        <v>4</v>
+      </c>
+      <c r="C637">
+        <v>220</v>
+      </c>
+      <c r="D637">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>13</v>
+      </c>
+      <c r="B638" t="s">
+        <v>3</v>
+      </c>
+      <c r="C638">
+        <v>220</v>
+      </c>
+      <c r="D638">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>13</v>
+      </c>
+      <c r="B639" t="s">
+        <v>4</v>
+      </c>
+      <c r="C639">
+        <v>220</v>
+      </c>
+      <c r="D639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>15</v>
+      </c>
+      <c r="B640" t="s">
+        <v>3</v>
+      </c>
+      <c r="C640">
+        <v>220</v>
+      </c>
+      <c r="D640">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>14</v>
+      </c>
+      <c r="B641" t="s">
+        <v>4</v>
+      </c>
+      <c r="C641">
+        <v>220</v>
+      </c>
+      <c r="D641">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>15</v>
+      </c>
+      <c r="B642" t="s">
+        <v>3</v>
+      </c>
+      <c r="C642">
+        <v>220</v>
+      </c>
+      <c r="D642">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>15</v>
+      </c>
+      <c r="B643" t="s">
+        <v>4</v>
+      </c>
+      <c r="C643">
+        <v>220</v>
+      </c>
+      <c r="D643">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>16</v>
+      </c>
+      <c r="B644" t="s">
+        <v>3</v>
+      </c>
+      <c r="C644">
+        <v>220</v>
+      </c>
+      <c r="D644">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>16</v>
+      </c>
+      <c r="B645" t="s">
+        <v>4</v>
+      </c>
+      <c r="C645">
+        <v>220</v>
+      </c>
+      <c r="D645">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>17</v>
+      </c>
+      <c r="B646" t="s">
+        <v>3</v>
+      </c>
+      <c r="C646">
+        <v>220</v>
+      </c>
+      <c r="D646">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>17</v>
+      </c>
+      <c r="B647" t="s">
+        <v>4</v>
+      </c>
+      <c r="C647">
+        <v>220</v>
+      </c>
+      <c r="D647">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>18</v>
+      </c>
+      <c r="B648" t="s">
+        <v>3</v>
+      </c>
+      <c r="C648">
+        <v>220</v>
+      </c>
+      <c r="D648">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>18</v>
+      </c>
+      <c r="B649" t="s">
+        <v>4</v>
+      </c>
+      <c r="C649">
+        <v>220</v>
+      </c>
+      <c r="D649">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>19</v>
+      </c>
+      <c r="B650" t="s">
+        <v>3</v>
+      </c>
+      <c r="C650">
+        <v>220</v>
+      </c>
+      <c r="D650">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>19</v>
+      </c>
+      <c r="B651" t="s">
+        <v>4</v>
+      </c>
+      <c r="C651">
+        <v>220</v>
+      </c>
+      <c r="D651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>20</v>
+      </c>
+      <c r="B652" t="s">
+        <v>3</v>
+      </c>
+      <c r="C652">
+        <v>220</v>
+      </c>
+      <c r="D652">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>20</v>
+      </c>
+      <c r="B653" t="s">
+        <v>4</v>
+      </c>
+      <c r="C653">
+        <v>220</v>
+      </c>
+      <c r="D653">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>21</v>
+      </c>
+      <c r="B654" t="s">
+        <v>3</v>
+      </c>
+      <c r="C654">
+        <v>220</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>21</v>
+      </c>
+      <c r="B655" t="s">
+        <v>4</v>
+      </c>
+      <c r="C655">
+        <v>220</v>
+      </c>
+      <c r="D655">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>22</v>
+      </c>
+      <c r="B656" t="s">
+        <v>3</v>
+      </c>
+      <c r="C656">
+        <v>220</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>22</v>
+      </c>
+      <c r="B657" t="s">
+        <v>4</v>
+      </c>
+      <c r="C657">
+        <v>220</v>
+      </c>
+      <c r="D657">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>23</v>
+      </c>
+      <c r="B658" t="s">
+        <v>3</v>
+      </c>
+      <c r="C658">
+        <v>220</v>
+      </c>
+      <c r="D658">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>23</v>
+      </c>
+      <c r="B659" t="s">
+        <v>4</v>
+      </c>
+      <c r="C659">
+        <v>220</v>
+      </c>
+      <c r="D659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>24</v>
+      </c>
+      <c r="B660" t="s">
+        <v>3</v>
+      </c>
+      <c r="C660">
+        <v>220</v>
+      </c>
+      <c r="D660">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>24</v>
+      </c>
+      <c r="B661" t="s">
+        <v>4</v>
+      </c>
+      <c r="C661">
+        <v>220</v>
+      </c>
+      <c r="D661">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>25</v>
+      </c>
+      <c r="B662" t="s">
+        <v>3</v>
+      </c>
+      <c r="C662">
+        <v>220</v>
+      </c>
+      <c r="D662">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>25</v>
+      </c>
+      <c r="B663" t="s">
+        <v>4</v>
+      </c>
+      <c r="C663">
+        <v>220</v>
+      </c>
+      <c r="D663">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>26</v>
+      </c>
+      <c r="B664" t="s">
+        <v>3</v>
+      </c>
+      <c r="C664">
+        <v>220</v>
+      </c>
+      <c r="D664">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>26</v>
+      </c>
+      <c r="B665" t="s">
+        <v>4</v>
+      </c>
+      <c r="C665">
+        <v>220</v>
+      </c>
+      <c r="D665">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>27</v>
+      </c>
+      <c r="B666" t="s">
+        <v>3</v>
+      </c>
+      <c r="C666">
+        <v>220</v>
+      </c>
+      <c r="D666">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>27</v>
+      </c>
+      <c r="B667" t="s">
+        <v>4</v>
+      </c>
+      <c r="C667">
+        <v>220</v>
+      </c>
+      <c r="D667">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>28</v>
+      </c>
+      <c r="B668" t="s">
+        <v>3</v>
+      </c>
+      <c r="C668">
+        <v>220</v>
+      </c>
+      <c r="D668">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>28</v>
+      </c>
+      <c r="B669" t="s">
+        <v>4</v>
+      </c>
+      <c r="C669">
+        <v>220</v>
+      </c>
+      <c r="D669">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>29</v>
+      </c>
+      <c r="B670" t="s">
+        <v>3</v>
+      </c>
+      <c r="C670">
+        <v>220</v>
+      </c>
+      <c r="D670">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>29</v>
+      </c>
+      <c r="B671" t="s">
+        <v>4</v>
+      </c>
+      <c r="C671">
+        <v>220</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>30</v>
+      </c>
+      <c r="B672" t="s">
+        <v>3</v>
+      </c>
+      <c r="C672">
+        <v>220</v>
+      </c>
+      <c r="D672">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>30</v>
+      </c>
+      <c r="B673" t="s">
+        <v>4</v>
+      </c>
+      <c r="C673">
+        <v>220</v>
+      </c>
+      <c r="D673">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>31</v>
+      </c>
+      <c r="B674" t="s">
+        <v>3</v>
+      </c>
+      <c r="C674">
+        <v>220</v>
+      </c>
+      <c r="D674">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>31</v>
+      </c>
+      <c r="B675" t="s">
+        <v>4</v>
+      </c>
+      <c r="C675">
+        <v>220</v>
+      </c>
+      <c r="D675">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>32</v>
+      </c>
+      <c r="B676" t="s">
+        <v>3</v>
+      </c>
+      <c r="C676">
+        <v>220</v>
+      </c>
+      <c r="D676">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>32</v>
+      </c>
+      <c r="B677" t="s">
+        <v>4</v>
+      </c>
+      <c r="C677">
+        <v>220</v>
+      </c>
+      <c r="D677">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>33</v>
+      </c>
+      <c r="B678" t="s">
+        <v>3</v>
+      </c>
+      <c r="C678">
+        <v>220</v>
+      </c>
+      <c r="D678">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>33</v>
+      </c>
+      <c r="B679" t="s">
+        <v>4</v>
+      </c>
+      <c r="C679">
+        <v>220</v>
+      </c>
+      <c r="D679">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>34</v>
+      </c>
+      <c r="B680" t="s">
+        <v>3</v>
+      </c>
+      <c r="C680">
+        <v>220</v>
+      </c>
+      <c r="D680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>34</v>
+      </c>
+      <c r="B681" t="s">
+        <v>4</v>
+      </c>
+      <c r="C681">
+        <v>220</v>
+      </c>
+      <c r="D681">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
